--- a/PPD/Function Points.xlsx
+++ b/PPD/Function Points.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IngSw2\PP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IngSw2\PPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>Type</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Reservation Rejection</t>
-  </si>
-  <si>
-    <t>Inquery</t>
   </si>
   <si>
     <t>Show Call Details</t>
@@ -473,13 +470,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,30 +479,37 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -798,8 +795,8 @@
   </sheetPr>
   <dimension ref="A1:AB1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -845,22 +842,22 @@
     </row>
     <row r="2" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="6"/>
@@ -909,31 +906,31 @@
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="25">
         <f>SUMPRODUCT(D11:F11,O9:Q9)</f>
         <v>55</v>
       </c>
       <c r="H4" s="9"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -948,7 +945,7 @@
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="28"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
@@ -957,10 +954,10 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="29"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="9"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="20"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="7" t="s">
         <v>2</v>
       </c>
@@ -984,7 +981,7 @@
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="28"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
@@ -993,7 +990,7 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="29"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="9"/>
       <c r="M6" s="11"/>
       <c r="N6" s="9" t="s">
@@ -1022,7 +1019,7 @@
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="28"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1031,7 +1028,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="29"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="9"/>
       <c r="M7" s="1"/>
       <c r="N7" s="9" t="s">
@@ -1060,7 +1057,7 @@
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
@@ -1069,7 +1066,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="29"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="9"/>
       <c r="M8" s="1"/>
       <c r="N8" s="9" t="s">
@@ -1098,7 +1095,7 @@
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="28"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
@@ -1107,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="29"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="4"/>
       <c r="M9" s="1"/>
       <c r="N9" s="9" t="s">
@@ -1136,7 +1133,7 @@
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="28"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1145,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="29"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="4"/>
       <c r="M10" s="1"/>
       <c r="N10" s="9" t="s">
@@ -1174,23 +1171,23 @@
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="23">
         <f t="shared" ref="D11:F11" si="0">COUNTIF(D4:D10,"X")</f>
         <v>5</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
@@ -1245,18 +1242,18 @@
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="25">
         <f>SUMPRODUCT(D15:F15,O10:Q10)</f>
         <v>12</v>
       </c>
@@ -1284,7 +1281,7 @@
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="28"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
@@ -1293,7 +1290,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="29"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
@@ -1318,23 +1315,23 @@
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="23">
         <f t="shared" ref="D15:F15" si="1">COUNTIF(D13:D14,"X")</f>
         <v>1</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="32"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="14"/>
@@ -1389,18 +1386,18 @@
     </row>
     <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27">
+      <c r="F17" s="22"/>
+      <c r="G17" s="25">
         <f>SUMPRODUCT(D24:F24,O6:Q6)</f>
         <v>29</v>
       </c>
@@ -1428,7 +1425,7 @@
     </row>
     <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="28"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="8" t="s">
         <v>27</v>
       </c>
@@ -1437,7 +1434,7 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="29"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="3"/>
@@ -1462,7 +1459,7 @@
     </row>
     <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="28"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="8" t="s">
         <v>28</v>
       </c>
@@ -1471,7 +1468,7 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="29"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="3"/>
@@ -1496,7 +1493,7 @@
     </row>
     <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="28"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="8" t="s">
         <v>29</v>
       </c>
@@ -1505,7 +1502,7 @@
       <c r="F20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="29"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="3"/>
@@ -1530,7 +1527,7 @@
     </row>
     <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="28"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="8" t="s">
         <v>30</v>
       </c>
@@ -1539,7 +1536,7 @@
       <c r="F21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="3"/>
@@ -1564,7 +1561,7 @@
     </row>
     <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="28"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="8" t="s">
         <v>31</v>
       </c>
@@ -1573,7 +1570,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="29"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="3"/>
@@ -1598,7 +1595,7 @@
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="28"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="8" t="s">
         <v>32</v>
       </c>
@@ -1607,7 +1604,7 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="29"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="3"/>
@@ -1632,23 +1629,23 @@
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="23">
         <f t="shared" ref="D24:F24" si="2">COUNTIF(D17:D23,"X")</f>
         <v>3</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="23">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="23">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G24" s="32"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="14"/>
@@ -1703,18 +1700,18 @@
     </row>
     <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27">
+      <c r="F26" s="22"/>
+      <c r="G26" s="25">
         <f>SUMPRODUCT(D32:F32,O7:Q7)</f>
         <v>26</v>
       </c>
@@ -1742,7 +1739,7 @@
     </row>
     <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="8" t="s">
         <v>34</v>
       </c>
@@ -1751,7 +1748,7 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="29"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="3"/>
@@ -1776,7 +1773,7 @@
     </row>
     <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="8" t="s">
         <v>35</v>
       </c>
@@ -1785,7 +1782,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="29"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="3"/>
@@ -1810,7 +1807,7 @@
     </row>
     <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="8" t="s">
         <v>36</v>
       </c>
@@ -1819,7 +1816,7 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="29"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="3"/>
@@ -1844,7 +1841,7 @@
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="28"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="8" t="s">
         <v>37</v>
       </c>
@@ -1853,7 +1850,7 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="29"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="3"/>
@@ -1878,7 +1875,7 @@
     </row>
     <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="28"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="8" t="s">
         <v>31</v>
       </c>
@@ -1887,7 +1884,7 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="29"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="3"/>
@@ -1912,23 +1909,23 @@
     </row>
     <row r="32" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31" t="s">
+      <c r="B32" s="36"/>
+      <c r="C32" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="23">
         <f t="shared" ref="D32:F32" si="3">COUNTIF(D26:D31,"X")</f>
         <v>4</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="23">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="32"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="18"/>
@@ -1983,18 +1980,18 @@
     </row>
     <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27">
+      <c r="F34" s="22"/>
+      <c r="G34" s="25">
         <f>SUMPRODUCT(D37:F37,O8:Q8)</f>
         <v>10</v>
       </c>
@@ -2022,16 +2019,16 @@
     </row>
     <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="28"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="29"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="3"/>
@@ -2056,16 +2053,16 @@
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="28"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="29"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="3"/>
@@ -2090,23 +2087,23 @@
     </row>
     <row r="37" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31" t="s">
+      <c r="B37" s="36"/>
+      <c r="C37" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="23">
         <f t="shared" ref="D37:F37" si="4">COUNTIF(D34:D36,"X")</f>
         <v>2</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="23">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G37" s="32"/>
+      <c r="G37" s="27"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="18"/>
@@ -2161,14 +2158,14 @@
     </row>
     <row r="39" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="24">
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="21">
         <f>SUM(G4:G37)</f>
         <v>132</v>
       </c>
